--- a/New Microsoft Office Excel Worksheet (2).xlsx
+++ b/New Microsoft Office Excel Worksheet (2).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1140" windowWidth="17016" windowHeight="9552" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="1140" windowWidth="17016" windowHeight="9552" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,7 +618,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E7"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -939,7 +939,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
